--- a/AA_Management/00_GANTT/GANTT_V2.xlsx
+++ b/AA_Management/00_GANTT/GANTT_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\00_GANTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F0DD19-47DD-4A1F-8726-79B61FD32F65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD327D1-D48B-4660-9D63-57FB6D1BD48A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B5F72930-40F3-4E46-BBD8-9CE832AB9E95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="6" xr2:uid="{B5F72930-40F3-4E46-BBD8-9CE832AB9E95}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="254">
   <si>
     <t>Trigramme</t>
   </si>
@@ -775,6 +775,30 @@
   </si>
   <si>
     <t xml:space="preserve">Compare </t>
+  </si>
+  <si>
+    <t>TOPs</t>
+  </si>
+  <si>
+    <t>Templates</t>
+  </si>
+  <si>
+    <t>RVP2 reports</t>
+  </si>
+  <si>
+    <t>RVP2 slides</t>
+  </si>
+  <si>
+    <t>Department leaders</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>TOPs previsionnal dates</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f>COUNTIF(Team!B$7:C41,Recap!C3)</f>
+        <f>COUNTIF(Team!B$7:C54,Recap!C3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="20" t="s">
@@ -1407,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f>COUNTIF(Team!B$7:C42,Recap!C4)</f>
+        <f>COUNTIF(Team!B$7:C55,Recap!C4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="21" t="s">
@@ -1436,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <f>COUNTIF(Team!B$7:C43,Recap!C5)</f>
+        <f>COUNTIF(Team!B$7:C56,Recap!C5)</f>
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1465,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <f>COUNTIF(Team!B$7:C44,Recap!C6)</f>
+        <f>COUNTIF(Team!B$7:C57,Recap!C6)</f>
         <v>0</v>
       </c>
     </row>
@@ -1487,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <f>COUNTIF(Team!B$7:C45,Recap!C7)</f>
+        <f>COUNTIF(Team!B$7:C58,Recap!C7)</f>
         <v>0</v>
       </c>
     </row>
@@ -1519,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f>COUNTIF(Team!B$7:C47,Recap!C9)</f>
+        <f>COUNTIF(Team!B$7:C60,Recap!C9)</f>
         <v>0</v>
       </c>
     </row>
@@ -1541,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <f>COUNTIF(Team!B$7:C48,Recap!C10)</f>
+        <f>COUNTIF(Team!B$7:C61,Recap!C10)</f>
         <v>0</v>
       </c>
     </row>
@@ -1563,8 +1587,8 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f>COUNTIF(Team!B$7:C49,Recap!C11)</f>
-        <v>0</v>
+        <f>COUNTIF(Team!B$7:C62,Recap!C11)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1585,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f>COUNTIF(Team!B$7:C50,Recap!C12)</f>
+        <f>COUNTIF(Team!B$7:C63,Recap!C12)</f>
         <v>0</v>
       </c>
     </row>
@@ -1607,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <f>COUNTIF(Team!B$7:C51,Recap!C13)</f>
+        <f>COUNTIF(Team!B$7:C64,Recap!C13)</f>
         <v>0</v>
       </c>
     </row>
@@ -1629,7 +1653,7 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <f>COUNTIF(Team!B$7:C52,Recap!C14)</f>
+        <f>COUNTIF(Team!B$7:C65,Recap!C14)</f>
         <v>1</v>
       </c>
     </row>
@@ -1661,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <f>COUNTIF(Team!B$7:C54,Recap!C16)</f>
+        <f>COUNTIF(Team!B$7:C67,Recap!C16)</f>
         <v>2</v>
       </c>
     </row>
@@ -1683,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <f>COUNTIF(Team!B$7:C55,Recap!C17)</f>
+        <f>COUNTIF(Team!B$7:C68,Recap!C17)</f>
         <v>0</v>
       </c>
     </row>
@@ -1705,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f>COUNTIF(Team!B$7:C56,Recap!C18)</f>
+        <f>COUNTIF(Team!B$7:C69,Recap!C18)</f>
         <v>0</v>
       </c>
     </row>
@@ -1727,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="F19">
-        <f>COUNTIF(Team!B$7:C57,Recap!C19)</f>
+        <f>COUNTIF(Team!B$7:C70,Recap!C19)</f>
         <v>0</v>
       </c>
     </row>
@@ -1749,8 +1773,8 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <f>COUNTIF(Team!B$7:C58,Recap!C20)</f>
-        <v>4</v>
+        <f>COUNTIF(Team!B$7:C71,Recap!C20)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
@@ -1771,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <f>COUNTIF(Team!B$7:C59,Recap!C21)</f>
+        <f>COUNTIF(Team!B$7:C72,Recap!C21)</f>
         <v>0</v>
       </c>
     </row>
@@ -1803,8 +1827,8 @@
         <v>6</v>
       </c>
       <c r="F23">
-        <f>COUNTIF(Team!B$7:C61,Recap!C23)</f>
-        <v>9</v>
+        <f>COUNTIF(Team!B$7:C74,Recap!C23)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -1825,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="F24">
-        <f>COUNTIF(Team!B$7:C62,Recap!C24)</f>
+        <f>COUNTIF(Team!B$7:C75,Recap!C24)</f>
         <v>0</v>
       </c>
     </row>
@@ -1847,7 +1871,7 @@
         <v>5</v>
       </c>
       <c r="F25">
-        <f>COUNTIF(Team!B$7:C63,Recap!C25)</f>
+        <f>COUNTIF(Team!B$7:C76,Recap!C25)</f>
         <v>0</v>
       </c>
     </row>
@@ -1869,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <f>COUNTIF(Team!B$7:C64,Recap!C26)</f>
+        <f>COUNTIF(Team!B$7:C77,Recap!C26)</f>
         <v>0</v>
       </c>
     </row>
@@ -1891,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <f>COUNTIF(Team!B$7:C65,Recap!C27)</f>
+        <f>COUNTIF(Team!B$7:C78,Recap!C27)</f>
         <v>0</v>
       </c>
     </row>
@@ -2806,10 +2830,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8D31CE-0B96-4FDE-992E-E4D0A8D295ED}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2825,7 +2849,7 @@
     <col min="9" max="9" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" customWidth="1"/>
+    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.44140625" customWidth="1"/>
     <col min="14" max="14" width="3.33203125" customWidth="1"/>
   </cols>
@@ -2834,6 +2858,9 @@
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B1" t="s">
+        <v>250</v>
+      </c>
       <c r="D1" s="2" t="s">
         <v>93</v>
       </c>
@@ -2851,6 +2878,9 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>251</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -3027,10 +3057,7 @@
         <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <f>MAX(E14:AA14)</f>
@@ -3159,70 +3186,58 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:D27" si="1">MAX(E24:AA24)</f>
+        <f t="shared" ref="D24" si="1">MAX(E24:AA24)</f>
         <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="27" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="L25">
-        <v>90</v>
-      </c>
-      <c r="M25">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>239</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>240</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="D28">
+        <f>MAX(E28:AA28)</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:D30" si="2">MAX(E29:AA29)</f>
+        <f>MAX(E29:AA29)</f>
         <v>0</v>
       </c>
       <c r="M29">
@@ -3231,17 +3246,133 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D30" si="2">MAX(E30:AA30)</f>
         <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>251</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35">
+        <f>MAX(E35:AA35)</f>
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <v>20</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" t="s">
+        <v>251</v>
+      </c>
+      <c r="L36">
+        <v>20</v>
+      </c>
+      <c r="M36">
+        <v>20</v>
+      </c>
+      <c r="N36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" t="s">
+        <v>251</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <f>MAX(E41:AA41)</f>
+        <v>90</v>
+      </c>
+      <c r="L41">
+        <v>90</v>
+      </c>
+      <c r="M41">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3256,8 +3387,32 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:D3 D7:P41">
-    <cfRule type="colorScale" priority="278">
+  <conditionalFormatting sqref="D2:D3 D7:P26 D41:P54 D28:P38 O27:P27">
+    <cfRule type="colorScale" priority="280">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:P40">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:N27">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percent" val="50"/>
@@ -3269,6 +3424,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4001,7 +4157,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4134,6 +4290,10 @@
       <c r="B7" t="s">
         <v>45</v>
       </c>
+      <c r="D7">
+        <f>MAX(E7:AV7)</f>
+        <v>20</v>
+      </c>
       <c r="I7">
         <v>20</v>
       </c>
@@ -4184,6 +4344,10 @@
         <v>42</v>
       </c>
       <c r="C10" s="2"/>
+      <c r="D10">
+        <f>MAX(E10:AV10)</f>
+        <v>0</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4205,6 +4369,10 @@
         <v>42</v>
       </c>
       <c r="C11" s="2"/>
+      <c r="D11">
+        <f t="shared" ref="D11:D19" si="0">MAX(E11:AV11)</f>
+        <v>0</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4226,6 +4394,10 @@
         <v>42</v>
       </c>
       <c r="C12" s="2"/>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4247,6 +4419,10 @@
         <v>42</v>
       </c>
       <c r="C13" s="2"/>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4267,6 +4443,10 @@
       <c r="B14" t="s">
         <v>45</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K14">
         <v>0</v>
       </c>
@@ -4289,6 +4469,10 @@
       </c>
       <c r="C15" t="s">
         <v>45</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -4374,7 +4558,7 @@
         <v>38</v>
       </c>
       <c r="D21">
-        <f>MAX(E3:AE3)</f>
+        <f>MAX(E21:AV21)</f>
         <v>0</v>
       </c>
     </row>
@@ -4502,6 +4686,10 @@
         <v>86</v>
       </c>
       <c r="C33" s="10"/>
+      <c r="D33">
+        <f>MAX(E15:AE15)</f>
+        <v>0</v>
+      </c>
       <c r="I33" s="25">
         <v>0</v>
       </c>
@@ -4517,6 +4705,10 @@
         <v>86</v>
       </c>
       <c r="C34" s="10"/>
+      <c r="D34">
+        <f t="shared" ref="D34:D36" si="1">MAX(E16:AE16)</f>
+        <v>0</v>
+      </c>
       <c r="K34">
         <v>0</v>
       </c>
@@ -4532,6 +4724,10 @@
         <v>86</v>
       </c>
       <c r="C35" s="10"/>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
       <c r="M35">
@@ -4547,6 +4743,10 @@
       </c>
       <c r="B36" s="13" t="s">
         <v>86</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -4627,8 +4827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163A8FDE-E8ED-4ACD-9152-9240B748B333}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4788,6 +4988,10 @@
       <c r="C8" t="s">
         <v>78</v>
       </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D9" si="0">MAX(E8:AF8)</f>
+        <v>100</v>
+      </c>
       <c r="I8">
         <v>100</v>
       </c>
@@ -4805,6 +5009,10 @@
       <c r="C9" t="s">
         <v>78</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I9">
         <v>0</v>
       </c>
@@ -4829,7 +5037,7 @@
         <v>78</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10" si="0">MAX(E10:AF10)</f>
+        <f t="shared" ref="D10" si="1">MAX(E10:AF10)</f>
         <v>0</v>
       </c>
       <c r="M10">
@@ -4892,6 +5100,10 @@
       <c r="A16" s="22" t="s">
         <v>135</v>
       </c>
+      <c r="D16">
+        <f t="shared" ref="D16" si="2">MAX(E16:AF16)</f>
+        <v>20</v>
+      </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -4929,6 +5141,10 @@
       <c r="B18" t="s">
         <v>2</v>
       </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D23" si="3">MAX(E18:AF18)</f>
+        <v>0</v>
+      </c>
       <c r="L18">
         <v>0</v>
       </c>
@@ -4941,7 +5157,7 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D20" si="1">MAX(E19:AF19)</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="H19">
@@ -4968,7 +5184,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="E20" s="26"/>
@@ -5001,6 +5217,10 @@
       <c r="A22" s="22" t="s">
         <v>132</v>
       </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
@@ -5023,6 +5243,10 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>133</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -5169,7 +5393,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33" si="2">MAX(E33:AF33)</f>
+        <f t="shared" ref="D33" si="4">MAX(E33:AF33)</f>
         <v>0</v>
       </c>
     </row>
@@ -5193,7 +5417,7 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D20:H20 D2:D3 D7:S19 K20:S20 D21:S47">
+  <conditionalFormatting sqref="D20:H20 D2:D3 K20:S20 D7:S19 D21:S47">
     <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/AA_Management/00_GANTT/GANTT_V2.xlsx
+++ b/AA_Management/00_GANTT/GANTT_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\00_GANTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD327D1-D48B-4660-9D63-57FB6D1BD48A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5032EB84-97E2-4909-AAEF-9B2E6AAA0131}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="6" xr2:uid="{B5F72930-40F3-4E46-BBD8-9CE832AB9E95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{B5F72930-40F3-4E46-BBD8-9CE832AB9E95}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="6" r:id="rId1"/>
@@ -2030,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADF6AF9-7A4E-44DD-AE57-99FC9DDD9D66}">
   <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2266,10 +2266,10 @@
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E20" si="0">MAX(F8:AF8)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
@@ -2284,10 +2284,10 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
@@ -2302,10 +2302,10 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I10">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
@@ -2558,10 +2558,10 @@
       </c>
       <c r="E25">
         <f>MAX(F25:Y25)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
@@ -2606,10 +2606,10 @@
       </c>
       <c r="E28">
         <f>MAX(F28:Y28)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
@@ -2833,7 +2833,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3061,13 +3061,16 @@
       </c>
       <c r="D14">
         <f>MAX(E14:AA14)</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L14">
         <v>10</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="N14">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -3115,13 +3118,19 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="M17">
+        <v>50</v>
+      </c>
+      <c r="N17">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -3139,6 +3148,12 @@
         <v>50</v>
       </c>
       <c r="L18">
+        <v>50</v>
+      </c>
+      <c r="M18">
+        <v>50</v>
+      </c>
+      <c r="N18">
         <v>50</v>
       </c>
     </row>
@@ -3387,7 +3402,7 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:D3 D7:P26 D41:P54 D28:P38 O27:P27">
+  <conditionalFormatting sqref="D2:D3 D41:P54 D28:P38 O27:P27 D7:P26">
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3433,7 +3448,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3570,7 +3585,7 @@
       </c>
       <c r="D7">
         <f t="shared" ref="D7" si="0">MAX(E7:AA7)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I7">
         <v>20</v>
@@ -3585,10 +3600,10 @@
         <v>40</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -4370,7 +4385,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11">
-        <f t="shared" ref="D11:D19" si="0">MAX(E11:AV11)</f>
+        <f t="shared" ref="D11:D15" si="0">MAX(E11:AV11)</f>
         <v>0</v>
       </c>
       <c r="E11" s="2"/>
@@ -4827,8 +4842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163A8FDE-E8ED-4ACD-9152-9240B748B333}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4844,7 +4859,7 @@
     <col min="9" max="9" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.77734375" customWidth="1"/>
@@ -4876,13 +4891,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="34">
-        <v>43531</v>
+        <v>43544</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
       <c r="I2" s="33">
         <f>WEEKNUM(F2)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2" s="33"/>
       <c r="O2" s="2"/>
@@ -5148,6 +5163,12 @@
       <c r="L18">
         <v>0</v>
       </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
@@ -5158,7 +5179,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H19">
         <v>50</v>
@@ -5170,10 +5191,10 @@
         <v>50</v>
       </c>
       <c r="K19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -5197,8 +5218,12 @@
       <c r="L20" s="25">
         <v>50</v>
       </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
+      <c r="M20" s="25">
+        <v>50</v>
+      </c>
+      <c r="N20" s="25">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
@@ -5237,8 +5262,12 @@
       <c r="L22" s="25">
         <v>30</v>
       </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
+      <c r="M22" s="25">
+        <v>30</v>
+      </c>
+      <c r="N22" s="25">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
@@ -5262,8 +5291,12 @@
       <c r="L23" s="25">
         <v>20</v>
       </c>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
+      <c r="M23" s="25">
+        <v>20</v>
+      </c>
+      <c r="N23" s="25">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>

--- a/AA_Management/00_GANTT/GANTT_V2.xlsx
+++ b/AA_Management/00_GANTT/GANTT_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\00_GANTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5032EB84-97E2-4909-AAEF-9B2E6AAA0131}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FA1ED4-C2C4-4D51-8F48-4E09127D02FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{B5F72930-40F3-4E46-BBD8-9CE832AB9E95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{B5F72930-40F3-4E46-BBD8-9CE832AB9E95}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="255">
   <si>
     <t>Trigramme</t>
   </si>
@@ -799,6 +799,9 @@
   </si>
   <si>
     <t>TOPs previsionnal dates</t>
+  </si>
+  <si>
+    <t>Tyre model</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1542,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="14">
-        <f>COUNTIF(LAS!B$39:C62,Recap!C9)</f>
+        <f>COUNTIF(LAS!B$40:C63,Recap!C9)</f>
         <v>0</v>
       </c>
       <c r="F9">
@@ -1561,7 +1564,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="14">
-        <f>COUNTIF(LAS!B$39:C63,Recap!C10)</f>
+        <f>COUNTIF(LAS!B$40:C64,Recap!C10)</f>
         <v>0</v>
       </c>
       <c r="F10">
@@ -1583,7 +1586,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="14">
-        <f>COUNTIF(LAS!B$39:C64,Recap!C11)</f>
+        <f>COUNTIF(LAS!B$40:C65,Recap!C11)</f>
         <v>0</v>
       </c>
       <c r="F11">
@@ -1605,7 +1608,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="14">
-        <f>COUNTIF(LAS!B$39:C65,Recap!C12)</f>
+        <f>COUNTIF(LAS!B$40:C66,Recap!C12)</f>
         <v>0</v>
       </c>
       <c r="F12">
@@ -1627,7 +1630,7 @@
         <v>39</v>
       </c>
       <c r="E13" s="14">
-        <f>COUNTIF(LAS!B$39:C66,Recap!C13)</f>
+        <f>COUNTIF(LAS!B$40:C67,Recap!C13)</f>
         <v>0</v>
       </c>
       <c r="F13">
@@ -1649,7 +1652,7 @@
         <v>39</v>
       </c>
       <c r="E14" s="14">
-        <f>COUNTIF(LAS!B7:C52,Recap!C14)</f>
+        <f>COUNTIF(LAS!B7:C53,Recap!C14)</f>
         <v>6</v>
       </c>
       <c r="F14">
@@ -2030,7 +2033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADF6AF9-7A4E-44DD-AE57-99FC9DDD9D66}">
   <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3725,10 +3728,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1320D3AA-A1FD-4527-B09E-AC733A9AA0F8}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3872,42 +3875,51 @@
       <c r="L7" s="25">
         <v>0</v>
       </c>
+      <c r="M7" s="25">
+        <v>0</v>
+      </c>
+      <c r="N7" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="25">
+        <v>30</v>
+      </c>
+      <c r="N8" s="25">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-    </row>
-    <row r="10" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="25">
-        <v>0</v>
-      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>5</v>
@@ -3918,7 +3930,7 @@
     </row>
     <row r="12" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>5</v>
@@ -3929,7 +3941,7 @@
     </row>
     <row r="13" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>5</v>
@@ -3938,193 +3950,204 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+    <row r="14" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>143</v>
-      </c>
+      <c r="A20" s="23"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="11"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4138,7 +4161,7 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:D3 D7:T13 D16:T55">
+  <conditionalFormatting sqref="D2:D3 D17:T56 D7:T14">
     <cfRule type="colorScale" priority="275">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4150,7 +4173,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:Q15">
+  <conditionalFormatting sqref="D15:Q16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/AA_Management/00_GANTT/GANTT_V2.xlsx
+++ b/AA_Management/00_GANTT/GANTT_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\00_GANTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FA1ED4-C2C4-4D51-8F48-4E09127D02FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B11209-8BE8-4C72-95C8-83C3C00EBA45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{B5F72930-40F3-4E46-BBD8-9CE832AB9E95}"/>
+    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{B5F72930-40F3-4E46-BBD8-9CE832AB9E95}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="255">
   <si>
     <t>Trigramme</t>
   </si>
@@ -3730,7 +3730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1320D3AA-A1FD-4527-B09E-AC733A9AA0F8}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -4863,10 +4863,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163A8FDE-E8ED-4ACD-9152-9240B748B333}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4885,10 +4885,14 @@
     <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" customWidth="1"/>
+    <col min="15" max="15" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -4904,9 +4908,9 @@
         <v>158</v>
       </c>
       <c r="J1" s="32"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -4914,25 +4918,25 @@
         <v>0</v>
       </c>
       <c r="F2" s="34">
-        <v>43544</v>
+        <v>43550</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
       <c r="I2" s="33">
         <f>WEEKNUM(F2)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" s="33"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="D3" s="2">
         <v>100</v>
       </c>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E4" s="36" t="s">
         <v>120</v>
       </c>
@@ -4953,8 +4957,16 @@
         <v>124</v>
       </c>
       <c r="N4" s="36"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O4" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="R4" s="36"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>91</v>
       </c>
@@ -4977,9 +4989,13 @@
       <c r="L5" s="3"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
@@ -4997,8 +5013,12 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
@@ -5009,14 +5029,14 @@
         <v>78</v>
       </c>
       <c r="D7">
-        <f>MAX(E7:AF7)</f>
+        <f>MAX(E7:AJ7)</f>
         <v>100</v>
       </c>
       <c r="H7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>128</v>
       </c>
@@ -5027,7 +5047,7 @@
         <v>78</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D9" si="0">MAX(E8:AF8)</f>
+        <f t="shared" ref="D8:D9" si="0">MAX(E8:AJ8)</f>
         <v>100</v>
       </c>
       <c r="I8">
@@ -5037,7 +5057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>129</v>
       </c>
@@ -5064,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
@@ -5075,7 +5095,7 @@
         <v>78</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10" si="1">MAX(E10:AF10)</f>
+        <f t="shared" ref="D10" si="1">MAX(E10:AJ10)</f>
         <v>0</v>
       </c>
       <c r="M10">
@@ -5084,11 +5104,17 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>130</v>
       </c>
@@ -5099,10 +5125,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -5114,8 +5140,12 @@
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>27</v>
       </c>
@@ -5133,13 +5163,17 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>135</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16" si="2">MAX(E16:AF16)</f>
+        <f t="shared" ref="D16" si="2">MAX(E16:AJ16)</f>
         <v>20</v>
       </c>
       <c r="E16" s="26"/>
@@ -5156,8 +5190,12 @@
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
@@ -5172,7 +5210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>131</v>
       </c>
@@ -5180,8 +5218,8 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:D23" si="3">MAX(E18:AF18)</f>
-        <v>0</v>
+        <f t="shared" ref="D18:D23" si="3">MAX(E18:AJ18)</f>
+        <v>100</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -5192,8 +5230,11 @@
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>30</v>
       </c>
@@ -5220,7 +5261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>29</v>
       </c>
@@ -5229,7 +5270,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -5247,8 +5288,14 @@
       <c r="N20" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O20" s="25">
+        <v>100</v>
+      </c>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -5260,8 +5307,12 @@
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>132</v>
       </c>
@@ -5291,8 +5342,20 @@
       <c r="N22" s="25">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O22" s="25">
+        <v>30</v>
+      </c>
+      <c r="P22" s="25">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>30</v>
+      </c>
+      <c r="R22" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>133</v>
       </c>
@@ -5320,11 +5383,23 @@
       <c r="N23" s="25">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O23" s="25">
+        <v>20</v>
+      </c>
+      <c r="P23" s="25">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>20</v>
+      </c>
+      <c r="R23" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>32</v>
       </c>
@@ -5342,8 +5417,12 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>33</v>
       </c>
@@ -5351,7 +5430,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <f>MAX(E26:AF26)</f>
+        <f>MAX(E26:AJ26)</f>
         <v>100</v>
       </c>
       <c r="H26">
@@ -5360,10 +5439,10 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>100</v>
       </c>
@@ -5380,9 +5459,13 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -5390,7 +5473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -5401,8 +5484,12 @@
       <c r="L30" s="26"/>
       <c r="M30" s="26"/>
       <c r="N30" s="26"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>109</v>
       </c>
@@ -5419,9 +5506,13 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="5"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>111</v>
       </c>
@@ -5430,7 +5521,7 @@
       </c>
       <c r="C32" s="25"/>
       <c r="D32">
-        <f>MAX(E32:AF32)</f>
+        <f>MAX(E32:AJ32)</f>
         <v>0</v>
       </c>
       <c r="M32">
@@ -5439,7 +5530,7 @@
       <c r="N32">
         <v>0</v>
       </c>
-      <c r="O32" s="25"/>
+      <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -5449,7 +5540,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33" si="4">MAX(E33:AF33)</f>
+        <f t="shared" ref="D33" si="4">MAX(E33:AJ33)</f>
         <v>0</v>
       </c>
     </row>
@@ -5462,7 +5553,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="F1:H1"/>
@@ -5473,8 +5566,20 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D20:H20 D2:D3 K20:S20 D7:S19 D21:S47">
-    <cfRule type="colorScale" priority="186">
+  <conditionalFormatting sqref="D20:H20 D2:D3 K20:N20 D7:N19 D21:N47 S7:W47">
+    <cfRule type="colorScale" priority="187">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:R47">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percent" val="50"/>

--- a/AA_Management/00_GANTT/GANTT_V2.xlsx
+++ b/AA_Management/00_GANTT/GANTT_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\00_GANTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B11209-8BE8-4C72-95C8-83C3C00EBA45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AF6672-8EC1-40EF-B0A6-4DDFA85FF817}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{B5F72930-40F3-4E46-BBD8-9CE832AB9E95}"/>
+    <workbookView xWindow="5700" yWindow="2952" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{B5F72930-40F3-4E46-BBD8-9CE832AB9E95}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="255">
   <si>
     <t>Trigramme</t>
   </si>
@@ -2039,7 +2039,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -2833,10 +2833,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8D31CE-0B96-4FDE-992E-E4D0A8D295ED}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2852,12 +2852,13 @@
     <col min="9" max="9" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.44140625" customWidth="1"/>
-    <col min="14" max="14" width="3.33203125" customWidth="1"/>
+    <col min="12" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="3.33203125" customWidth="1"/>
+    <col min="17" max="17" width="3.109375" customWidth="1"/>
+    <col min="18" max="18" width="2.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -2878,7 +2879,7 @@
       </c>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>159</v>
       </c>
@@ -2890,17 +2891,17 @@
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="34">
-        <v>43535</v>
+        <v>43551</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
       <c r="I2" s="33">
         <f>WEEKNUM(F2)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" s="33"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="D3" s="2">
         <v>100</v>
@@ -2911,7 +2912,7 @@
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E4" s="36" t="s">
         <v>120</v>
       </c>
@@ -2932,8 +2933,16 @@
         <v>124</v>
       </c>
       <c r="N4" s="36"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O4" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="R4" s="36"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>91</v>
       </c>
@@ -2956,8 +2965,12 @@
       <c r="L5" s="3"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -2974,8 +2987,12 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>222</v>
       </c>
@@ -3004,8 +3021,20 @@
       <c r="K7">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>75</v>
+      </c>
+      <c r="M7">
+        <v>75</v>
+      </c>
+      <c r="N7">
+        <v>75</v>
+      </c>
+      <c r="O7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>223</v>
       </c>
@@ -3025,19 +3054,19 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -3054,8 +3083,12 @@
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>126</v>
       </c>
@@ -3076,7 +3109,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>127</v>
       </c>
@@ -3094,7 +3127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>224</v>
       </c>
@@ -3112,7 +3145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>225</v>
       </c>
@@ -3136,7 +3169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>226</v>
       </c>
@@ -3160,7 +3193,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>227</v>
       </c>
@@ -3178,7 +3211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>228</v>
       </c>
@@ -3195,8 +3228,12 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>229</v>
       </c>
@@ -3211,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>246</v>
       </c>
@@ -3228,8 +3265,12 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -3238,16 +3279,16 @@
       </c>
       <c r="D28">
         <f>MAX(E28:AA28)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>243</v>
       </c>
@@ -3256,13 +3297,19 @@
       </c>
       <c r="D29">
         <f>MAX(E29:AA29)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N29">
+        <v>50</v>
+      </c>
+      <c r="O29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>242</v>
       </c>
@@ -3271,13 +3318,19 @@
       </c>
       <c r="D30">
         <f t="shared" ref="D30" si="2">MAX(E30:AA30)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="N30">
+        <v>50</v>
+      </c>
+      <c r="O30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>252</v>
       </c>
@@ -3285,10 +3338,13 @@
         <v>251</v>
       </c>
       <c r="N31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="O31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>253</v>
       </c>
@@ -3301,8 +3357,11 @@
       <c r="N32">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>240</v>
       </c>
@@ -3322,8 +3381,11 @@
       <c r="N35">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>248</v>
       </c>
@@ -3339,8 +3401,11 @@
       <c r="N36">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -3356,8 +3421,11 @@
       <c r="N37">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>247</v>
       </c>
@@ -3374,8 +3442,12 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>241</v>
       </c>
@@ -3384,17 +3456,19 @@
       </c>
       <c r="D41">
         <f>MAX(E41:AA41)</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L41">
         <v>90</v>
       </c>
       <c r="M41">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="F1:H1"/>
@@ -3405,7 +3479,7 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:D3 D41:P54 D28:P38 O27:P27 D7:P26">
+  <conditionalFormatting sqref="D2:D3 D41:P54 O27:P27 D7:P26 D28:P38">
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -4865,7 +4939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163A8FDE-E8ED-4ACD-9152-9240B748B333}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>

--- a/AA_Management/00_GANTT/GANTT_V2.xlsx
+++ b/AA_Management/00_GANTT/GANTT_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\00_GANTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AF6672-8EC1-40EF-B0A6-4DDFA85FF817}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF85867E-4B6A-4914-AF64-4BFACCF22C26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="2952" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{B5F72930-40F3-4E46-BBD8-9CE832AB9E95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{B5F72930-40F3-4E46-BBD8-9CE832AB9E95}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="6" r:id="rId1"/>
@@ -2835,7 +2835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8D31CE-0B96-4FDE-992E-E4D0A8D295ED}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3522,10 +3522,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35EF606-A871-409C-82B7-398BAE434E28}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3759,6 +3759,22 @@
       <c r="L13">
         <v>0</v>
       </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/AA_Management/00_GANTT/GANTT_V2.xlsx
+++ b/AA_Management/00_GANTT/GANTT_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\00_GANTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF85867E-4B6A-4914-AF64-4BFACCF22C26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA8958-1751-462A-9F2E-A581D999655B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{B5F72930-40F3-4E46-BBD8-9CE832AB9E95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{B5F72930-40F3-4E46-BBD8-9CE832AB9E95}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="6" r:id="rId1"/>
@@ -879,7 +879,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -922,6 +922,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -947,7 +953,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1016,6 +1022,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2033,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADF6AF9-7A4E-44DD-AE57-99FC9DDD9D66}">
   <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2348,7 +2357,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="37" t="s">
         <v>199</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -2438,7 +2447,7 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="37" t="s">
         <v>209</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -2664,7 +2673,7 @@
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="37" t="s">
         <v>199</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -2715,7 +2724,7 @@
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="37" t="s">
         <v>219</v>
       </c>
       <c r="D35" s="29">
@@ -3524,7 +3533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35EF606-A871-409C-82B7-398BAE434E28}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
